--- a/CSV-Reconcile_Process/Examples/FDH/Reconciled/matched_reconciliation.xlsx
+++ b/CSV-Reconcile_Process/Examples/FDH/Reconciled/matched_reconciliation.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Examples/FDH/Reconciled/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869B6DA2-8E13-094C-B863-7A1FA38616B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="26500" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Perfect Matches" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Perfect Matches'!$A$1:$E$1</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -478,8 +487,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +564,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -601,7 +618,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,9 +650,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,6 +702,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -842,14 +895,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,7 +927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -883,7 +944,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -900,7 +961,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -917,7 +978,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -934,7 +995,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -951,7 +1012,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -968,7 +1029,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -985,7 +1046,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1002,7 +1063,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1019,7 +1080,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1036,7 +1097,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1053,7 +1114,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1070,7 +1131,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1087,7 +1148,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1104,7 +1165,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1121,7 +1182,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1138,7 +1199,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1155,7 +1216,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1172,7 +1233,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1189,7 +1250,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1206,7 +1267,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1223,7 +1284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1240,7 +1301,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1257,7 +1318,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1274,7 +1335,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1291,7 +1352,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1308,7 +1369,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1325,7 +1386,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1342,7 +1403,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1359,7 +1420,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1376,7 +1437,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1393,7 +1454,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1410,7 +1471,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1427,7 +1488,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1444,7 +1505,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1461,7 +1522,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1478,7 +1539,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1495,7 +1556,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1512,7 +1573,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1529,7 +1590,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1546,7 +1607,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1563,7 +1624,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1580,7 +1641,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1597,7 +1658,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1614,7 +1675,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1631,7 +1692,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1648,7 +1709,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1665,7 +1726,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1682,7 +1743,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1699,7 +1760,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1716,7 +1777,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1733,7 +1794,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1750,7 +1811,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1767,7 +1828,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1784,7 +1845,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1801,7 +1862,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1818,7 +1879,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -1835,7 +1896,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -1852,7 +1913,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1869,7 +1930,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -1886,7 +1947,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1903,7 +1964,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -1920,7 +1981,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -1937,7 +1998,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -1954,7 +2015,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -1971,7 +2032,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -1988,7 +2049,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2005,7 +2066,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2022,7 +2083,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -2039,7 +2100,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2056,7 +2117,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -2073,7 +2134,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2090,7 +2151,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -2107,7 +2168,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -2125,81 +2186,82 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
-    <hyperlink ref="E22" r:id="rId21"/>
-    <hyperlink ref="E23" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23"/>
-    <hyperlink ref="E25" r:id="rId24"/>
-    <hyperlink ref="E26" r:id="rId25"/>
-    <hyperlink ref="E27" r:id="rId26"/>
-    <hyperlink ref="E28" r:id="rId27"/>
-    <hyperlink ref="E29" r:id="rId28"/>
-    <hyperlink ref="E30" r:id="rId29"/>
-    <hyperlink ref="E31" r:id="rId30"/>
-    <hyperlink ref="E32" r:id="rId31"/>
-    <hyperlink ref="E33" r:id="rId32"/>
-    <hyperlink ref="E34" r:id="rId33"/>
-    <hyperlink ref="E35" r:id="rId34"/>
-    <hyperlink ref="E36" r:id="rId35"/>
-    <hyperlink ref="E37" r:id="rId36"/>
-    <hyperlink ref="E38" r:id="rId37"/>
-    <hyperlink ref="E39" r:id="rId38"/>
-    <hyperlink ref="E40" r:id="rId39"/>
-    <hyperlink ref="E41" r:id="rId40"/>
-    <hyperlink ref="E42" r:id="rId41"/>
-    <hyperlink ref="E43" r:id="rId42"/>
-    <hyperlink ref="E44" r:id="rId43"/>
-    <hyperlink ref="E45" r:id="rId44"/>
-    <hyperlink ref="E46" r:id="rId45"/>
-    <hyperlink ref="E47" r:id="rId46"/>
-    <hyperlink ref="E48" r:id="rId47"/>
-    <hyperlink ref="E49" r:id="rId48"/>
-    <hyperlink ref="E50" r:id="rId49"/>
-    <hyperlink ref="E51" r:id="rId50"/>
-    <hyperlink ref="E52" r:id="rId51"/>
-    <hyperlink ref="E53" r:id="rId52"/>
-    <hyperlink ref="E54" r:id="rId53"/>
-    <hyperlink ref="E55" r:id="rId54"/>
-    <hyperlink ref="E56" r:id="rId55"/>
-    <hyperlink ref="E57" r:id="rId56"/>
-    <hyperlink ref="E58" r:id="rId57"/>
-    <hyperlink ref="E59" r:id="rId58"/>
-    <hyperlink ref="E60" r:id="rId59"/>
-    <hyperlink ref="E61" r:id="rId60"/>
-    <hyperlink ref="E62" r:id="rId61"/>
-    <hyperlink ref="E63" r:id="rId62"/>
-    <hyperlink ref="E64" r:id="rId63"/>
-    <hyperlink ref="E65" r:id="rId64"/>
-    <hyperlink ref="E66" r:id="rId65"/>
-    <hyperlink ref="E67" r:id="rId66"/>
-    <hyperlink ref="E68" r:id="rId67"/>
-    <hyperlink ref="E69" r:id="rId68"/>
-    <hyperlink ref="E70" r:id="rId69"/>
-    <hyperlink ref="E71" r:id="rId70"/>
-    <hyperlink ref="E72" r:id="rId71"/>
-    <hyperlink ref="E73" r:id="rId72"/>
-    <hyperlink ref="E74" r:id="rId73"/>
-    <hyperlink ref="E75" r:id="rId74"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
